--- a/example_data/EPA/label_corrected/084229-00047-20180607_2018-12-08_192653.xlsx
+++ b/example_data/EPA/label_corrected/084229-00047-20180607_2018-12-08_192653.xlsx
@@ -801,7 +801,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Irrigation || Application Instructions || Safety Procedures</t>
+          <t>safety procedures || irrigation || application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -18072,7 +18072,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G629" t="inlineStr"/>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G681" t="inlineStr"/>
@@ -19570,7 +19570,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G683" t="inlineStr"/>
@@ -19602,7 +19602,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G684" t="inlineStr"/>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G776" t="inlineStr"/>
